--- a/biology/Botanique/Caesalpinioideae/Caesalpinioideae.xlsx
+++ b/biology/Botanique/Caesalpinioideae/Caesalpinioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caesalpinioideae sont une des trois sous-familles de la famille des Fabaceae (ou Leguminosae). Cette sous-famille n'existait pas en classification classique (1981), qui élevait encore ce groupe au rang de la famille des Caesalpiniaceae.
 Ces plantes sont des lianes, arbustes et arbres, la plupart dans les tropiques et sous-tropiques, mais les espèces des genres Cercis, Gleditsia et Gymnocladus sont des arbres des régions tempérées.
@@ -515,7 +527,9 @@
           <t>Tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-famille se décompose en 4 tribus :
 Tribu des Caesalpinieae
